--- a/team_specific_matrix/Colorado_A.xlsx
+++ b/team_specific_matrix/Colorado_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.135036496350365</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0.6605839416058394</v>
+        <v>0.6510989010989011</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0072992700729927</v>
+        <v>0.01373626373626374</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1313868613138686</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06569343065693431</v>
+        <v>0.06043956043956044</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00966183574879227</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="C3">
-        <v>0.02415458937198068</v>
+        <v>0.02641509433962264</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03381642512077294</v>
+        <v>0.02641509433962264</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7584541062801933</v>
+        <v>0.7660377358490567</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1739130434782609</v>
+        <v>0.1735849056603773</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0196078431372549</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3137254901960784</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06779661016949153</v>
+        <v>0.07987220447284345</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02542372881355932</v>
+        <v>0.02236421725239617</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04661016949152542</v>
+        <v>0.04792332268370607</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2457627118644068</v>
+        <v>0.2428115015974441</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01271186440677966</v>
+        <v>0.02236421725239617</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1906779661016949</v>
+        <v>0.1821086261980831</v>
       </c>
       <c r="R6">
-        <v>0.07203389830508475</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="S6">
-        <v>0.3389830508474576</v>
+        <v>0.3162939297124601</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09340659340659341</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05494505494505494</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08791208791208792</v>
+        <v>0.09163346613545817</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09340659340659341</v>
+        <v>0.09163346613545817</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02197802197802198</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2197802197802198</v>
+        <v>0.2231075697211155</v>
       </c>
       <c r="R7">
-        <v>0.08791208791208792</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="S7">
-        <v>0.3406593406593407</v>
+        <v>0.3306772908366534</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08102766798418973</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01778656126482214</v>
+        <v>0.01697530864197531</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07707509881422925</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1264822134387352</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01778656126482214</v>
+        <v>0.02160493827160494</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2114624505928854</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="R8">
-        <v>0.08893280632411067</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="S8">
-        <v>0.3794466403162055</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1726190476190476</v>
+        <v>0.15625</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02380952380952381</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
-        <v>0.005952380952380952</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07142857142857142</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2321428571428572</v>
+        <v>0.2276785714285714</v>
       </c>
       <c r="R9">
-        <v>0.04166666666666666</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="S9">
-        <v>0.3511904761904762</v>
+        <v>0.3616071428571428</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09158050221565731</v>
+        <v>0.08757062146892655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01772525849335303</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07163958641063516</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1166912850812408</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02215657311669128</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2370753323485968</v>
+        <v>0.2310734463276836</v>
       </c>
       <c r="R10">
-        <v>0.09453471196454949</v>
+        <v>0.09717514124293786</v>
       </c>
       <c r="S10">
-        <v>0.3485967503692762</v>
+        <v>0.3581920903954802</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1268656716417911</v>
+        <v>0.1342105263157895</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1119402985074627</v>
+        <v>0.1131578947368421</v>
       </c>
       <c r="K11">
-        <v>0.1641791044776119</v>
+        <v>0.1815789473684211</v>
       </c>
       <c r="L11">
-        <v>0.585820895522388</v>
+        <v>0.5605263157894737</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01119402985074627</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7710843373493976</v>
+        <v>0.755656108597285</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.144578313253012</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="K12">
-        <v>0.01204819277108434</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="L12">
-        <v>0.04216867469879518</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03012048192771084</v>
+        <v>0.03167420814479638</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01953125</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.203125</v>
+        <v>0.1871165644171779</v>
       </c>
       <c r="I15">
-        <v>0.0546875</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="J15">
-        <v>0.33203125</v>
+        <v>0.3312883435582822</v>
       </c>
       <c r="K15">
-        <v>0.05859375</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00390625</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.046875</v>
+        <v>0.03987730061349693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.28125</v>
+        <v>0.2975460122699387</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02790697674418605</v>
+        <v>0.0274914089347079</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1767441860465116</v>
+        <v>0.1718213058419244</v>
       </c>
       <c r="I16">
-        <v>0.06976744186046512</v>
+        <v>0.06529209621993128</v>
       </c>
       <c r="J16">
-        <v>0.3953488372093023</v>
+        <v>0.4054982817869416</v>
       </c>
       <c r="K16">
-        <v>0.1069767441860465</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0186046511627907</v>
+        <v>0.0274914089347079</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05116279069767442</v>
+        <v>0.0584192439862543</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1534883720930233</v>
+        <v>0.1443298969072165</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01788908765652952</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2003577817531306</v>
+        <v>0.1972027972027972</v>
       </c>
       <c r="I17">
-        <v>0.06976744186046512</v>
+        <v>0.07132867132867132</v>
       </c>
       <c r="J17">
-        <v>0.4418604651162791</v>
+        <v>0.4335664335664335</v>
       </c>
       <c r="K17">
-        <v>0.08586762075134168</v>
+        <v>0.08811188811188811</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01610017889087657</v>
+        <v>0.01258741258741259</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07871198568872988</v>
+        <v>0.08111888111888112</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08944543828264759</v>
+        <v>0.0979020979020979</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02764976958525346</v>
+        <v>0.02711864406779661</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2027649769585254</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="I18">
-        <v>0.05529953917050692</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="J18">
-        <v>0.4470046082949309</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="K18">
-        <v>0.07834101382488479</v>
+        <v>0.08813559322033898</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009216589861751152</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04608294930875576</v>
+        <v>0.04067796610169491</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1336405529953917</v>
+        <v>0.1254237288135593</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0090311986863711</v>
+        <v>0.01292307692307692</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2126436781609195</v>
+        <v>0.2098461538461538</v>
       </c>
       <c r="I19">
-        <v>0.07307060755336617</v>
+        <v>0.07261538461538461</v>
       </c>
       <c r="J19">
-        <v>0.4006568144499179</v>
+        <v>0.3963076923076923</v>
       </c>
       <c r="K19">
-        <v>0.0960591133004926</v>
+        <v>0.1027692307692308</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01477832512315271</v>
+        <v>0.01784615384615384</v>
       </c>
       <c r="N19">
-        <v>0.002463054187192118</v>
+        <v>0.002461538461538462</v>
       </c>
       <c r="O19">
-        <v>0.08374384236453201</v>
+        <v>0.07630769230769231</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1075533661740558</v>
+        <v>0.1089230769230769</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Colorado_A.xlsx
+++ b/team_specific_matrix/Colorado_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1507537688442211</v>
       </c>
       <c r="C2">
-        <v>0.6510989010989011</v>
+        <v>0.6407035175879398</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01373626373626374</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1318681318681319</v>
+        <v>0.1331658291457286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06043956043956044</v>
+        <v>0.06281407035175879</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007547169811320755</v>
+        <v>0.007067137809187279</v>
       </c>
       <c r="C3">
-        <v>0.02641509433962264</v>
+        <v>0.02473498233215548</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02641509433962264</v>
+        <v>0.03180212014134275</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7660377358490567</v>
+        <v>0.7667844522968198</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1735849056603773</v>
+        <v>0.1696113074204947</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01298701298701299</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6883116883116883</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2987012987012987</v>
+        <v>0.2771084337349398</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07987220447284345</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02236421725239617</v>
+        <v>0.02359882005899705</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04792332268370607</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2428115015974441</v>
+        <v>0.2418879056047198</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02236421725239617</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1821086261980831</v>
+        <v>0.1799410029498525</v>
       </c>
       <c r="R6">
-        <v>0.08626198083067092</v>
+        <v>0.08259587020648967</v>
       </c>
       <c r="S6">
-        <v>0.3162939297124601</v>
+        <v>0.3185840707964602</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09561752988047809</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05179282868525897</v>
+        <v>0.04577464788732395</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09163346613545817</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09163346613545817</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0199203187250996</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2231075697211155</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="R7">
-        <v>0.09561752988047809</v>
+        <v>0.09507042253521127</v>
       </c>
       <c r="S7">
-        <v>0.3306772908366534</v>
+        <v>0.3345070422535211</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09722222222222222</v>
+        <v>0.09781021897810219</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01697530864197531</v>
+        <v>0.01605839416058394</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07098765432098765</v>
+        <v>0.07153284671532846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1157407407407407</v>
+        <v>0.1109489051094891</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02160493827160494</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2098765432098765</v>
+        <v>0.2102189781021898</v>
       </c>
       <c r="R8">
-        <v>0.08796296296296297</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="S8">
-        <v>0.3796296296296297</v>
+        <v>0.3839416058394161</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.15625</v>
+        <v>0.1446280991735537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="E9">
-        <v>0.004464285714285714</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="F9">
-        <v>0.07589285714285714</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07589285714285714</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01339285714285714</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2276785714285714</v>
+        <v>0.2355371900826446</v>
       </c>
       <c r="R9">
-        <v>0.05357142857142857</v>
+        <v>0.05371900826446281</v>
       </c>
       <c r="S9">
-        <v>0.3616071428571428</v>
+        <v>0.371900826446281</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08757062146892655</v>
+        <v>0.08980454305335446</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02259887005649718</v>
+        <v>0.02377179080824089</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07062146892655367</v>
+        <v>0.07237189646064449</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1101694915254237</v>
+        <v>0.109878499735869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02259887005649718</v>
+        <v>0.02218700475435816</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2310734463276836</v>
+        <v>0.2282091917591125</v>
       </c>
       <c r="R10">
-        <v>0.09717514124293786</v>
+        <v>0.09561542525092445</v>
       </c>
       <c r="S10">
-        <v>0.3581920903954802</v>
+        <v>0.358161648177496</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1342105263157895</v>
+        <v>0.1334894613583138</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1131578947368421</v>
+        <v>0.107728337236534</v>
       </c>
       <c r="K11">
-        <v>0.1815789473684211</v>
+        <v>0.1826697892271663</v>
       </c>
       <c r="L11">
-        <v>0.5605263157894737</v>
+        <v>0.5667447306791569</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01052631578947368</v>
+        <v>0.00936768149882904</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.755656108597285</v>
+        <v>0.7579365079365079</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1719457013574661</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="K12">
-        <v>0.009049773755656109</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="L12">
-        <v>0.03167420814479638</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03167420814479638</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2040816326530612</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08163265306122448</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01533742331288344</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1871165644171779</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="I15">
-        <v>0.06134969325153374</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="J15">
-        <v>0.3312883435582822</v>
+        <v>0.3304347826086956</v>
       </c>
       <c r="K15">
-        <v>0.06134969325153374</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006134969325153374</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03987730061349693</v>
+        <v>0.04057971014492753</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2975460122699387</v>
+        <v>0.2956521739130435</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0274914089347079</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1718213058419244</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="I16">
-        <v>0.06529209621993128</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="J16">
-        <v>0.4054982817869416</v>
+        <v>0.3955696202531646</v>
       </c>
       <c r="K16">
-        <v>0.09965635738831616</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0274914089347079</v>
+        <v>0.02848101265822785</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0584192439862543</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1443298969072165</v>
+        <v>0.1360759493670886</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01818181818181818</v>
+        <v>0.01703800786369594</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1972027972027972</v>
+        <v>0.1939711664482307</v>
       </c>
       <c r="I17">
-        <v>0.07132867132867132</v>
+        <v>0.07077326343381389</v>
       </c>
       <c r="J17">
-        <v>0.4335664335664335</v>
+        <v>0.4338138925294889</v>
       </c>
       <c r="K17">
-        <v>0.08811188811188811</v>
+        <v>0.08781127129750983</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01258741258741259</v>
+        <v>0.01310615989515072</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002621231979030144</v>
       </c>
       <c r="O17">
-        <v>0.08111888111888112</v>
+        <v>0.07863695937090433</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0979020979020979</v>
+        <v>0.1022280471821756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02711864406779661</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1864406779661017</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="I18">
-        <v>0.06440677966101695</v>
+        <v>0.0608974358974359</v>
       </c>
       <c r="J18">
-        <v>0.4576271186440678</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="K18">
-        <v>0.08813559322033898</v>
+        <v>0.09935897435897435</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01016949152542373</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04067796610169491</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1254237288135593</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01292307692307692</v>
+        <v>0.0137299771167048</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2098461538461538</v>
+        <v>0.2053775743707094</v>
       </c>
       <c r="I19">
-        <v>0.07261538461538461</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="J19">
-        <v>0.3963076923076923</v>
+        <v>0.3958810068649886</v>
       </c>
       <c r="K19">
-        <v>0.1027692307692308</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01784615384615384</v>
+        <v>0.01659038901601831</v>
       </c>
       <c r="N19">
-        <v>0.002461538461538462</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="O19">
-        <v>0.07630769230769231</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1089230769230769</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Colorado_A.xlsx
+++ b/team_specific_matrix/Colorado_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1507537688442211</v>
+        <v>0.1577909270216963</v>
       </c>
       <c r="C2">
-        <v>0.6407035175879398</v>
+        <v>0.631163708086785</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01256281407035176</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1331658291457286</v>
+        <v>0.1341222879684418</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06281407035175879</v>
+        <v>0.0650887573964497</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007067137809187279</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C3">
-        <v>0.02473498233215548</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03180212014134275</v>
+        <v>0.03160919540229885</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7667844522968198</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1696113074204947</v>
+        <v>0.1810344827586207</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01204819277108434</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7108433734939759</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2771084337349398</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07964601769911504</v>
+        <v>0.0703883495145631</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02359882005899705</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05309734513274336</v>
+        <v>0.0558252427184466</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2418879056047198</v>
+        <v>0.2402912621359223</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02064896755162242</v>
+        <v>0.01699029126213592</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1799410029498525</v>
+        <v>0.1723300970873786</v>
       </c>
       <c r="R6">
-        <v>0.08259587020648967</v>
+        <v>0.08495145631067962</v>
       </c>
       <c r="S6">
-        <v>0.3185840707964602</v>
+        <v>0.3398058252427185</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1056338028169014</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04577464788732395</v>
+        <v>0.04261363636363636</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08450704225352113</v>
+        <v>0.07670454545454546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09154929577464789</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0176056338028169</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2253521126760563</v>
+        <v>0.21875</v>
       </c>
       <c r="R7">
-        <v>0.09507042253521127</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="S7">
-        <v>0.3345070422535211</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09781021897810219</v>
+        <v>0.102683780630105</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01605839416058394</v>
+        <v>0.01750291715285881</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07153284671532846</v>
+        <v>0.06767794632438739</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1109489051094891</v>
+        <v>0.1120186697782964</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0218978102189781</v>
+        <v>0.02100350058343057</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2102189781021898</v>
+        <v>0.2042007001166861</v>
       </c>
       <c r="R8">
-        <v>0.08759124087591241</v>
+        <v>0.07934655775962661</v>
       </c>
       <c r="S8">
-        <v>0.3839416058394161</v>
+        <v>0.3955659276546091</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1446280991735537</v>
+        <v>0.1375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02892561983471074</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
-        <v>0.004132231404958678</v>
+        <v>0.003125</v>
       </c>
       <c r="F9">
-        <v>0.07024793388429752</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07851239669421488</v>
+        <v>0.09375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01239669421487603</v>
+        <v>0.009375</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2355371900826446</v>
+        <v>0.221875</v>
       </c>
       <c r="R9">
-        <v>0.05371900826446281</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.371900826446281</v>
+        <v>0.390625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08980454305335446</v>
+        <v>0.09335038363171355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02377179080824089</v>
+        <v>0.02216538789428815</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0004262574595055413</v>
       </c>
       <c r="F10">
-        <v>0.07237189646064449</v>
+        <v>0.07289002557544758</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.109878499735869</v>
+        <v>0.1057118499573743</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02218700475435816</v>
+        <v>0.02259164535379369</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2282091917591125</v>
+        <v>0.23231031543052</v>
       </c>
       <c r="R10">
-        <v>0.09561542525092445</v>
+        <v>0.09505541346973571</v>
       </c>
       <c r="S10">
-        <v>0.358161648177496</v>
+        <v>0.3554987212276215</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1334894613583138</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.107728337236534</v>
+        <v>0.09904761904761905</v>
       </c>
       <c r="K11">
-        <v>0.1826697892271663</v>
+        <v>0.1961904761904762</v>
       </c>
       <c r="L11">
-        <v>0.5667447306791569</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00936768149882904</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7579365079365079</v>
+        <v>0.7433333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1706349206349206</v>
+        <v>0.19</v>
       </c>
       <c r="K12">
-        <v>0.007936507936507936</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7254901960784313</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.196078431372549</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07843137254901961</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01449275362318841</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1884057971014493</v>
+        <v>0.1771844660194175</v>
       </c>
       <c r="I15">
-        <v>0.05797101449275362</v>
+        <v>0.06067961165048544</v>
       </c>
       <c r="J15">
-        <v>0.3304347826086956</v>
+        <v>0.3398058252427185</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005797101449275362</v>
+        <v>0.007281553398058253</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04057971014492753</v>
+        <v>0.03640776699029126</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2956521739130435</v>
+        <v>0.3009708737864077</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02531645569620253</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1772151898734177</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="I16">
-        <v>0.06012658227848101</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="J16">
-        <v>0.3955696202531646</v>
+        <v>0.3994845360824743</v>
       </c>
       <c r="K16">
-        <v>0.120253164556962</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02848101265822785</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05696202531645569</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1360759493670886</v>
+        <v>0.1314432989690722</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01703800786369594</v>
+        <v>0.01696712619300106</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1939711664482307</v>
+        <v>0.1919406150583245</v>
       </c>
       <c r="I17">
-        <v>0.07077326343381389</v>
+        <v>0.0784729586426299</v>
       </c>
       <c r="J17">
-        <v>0.4338138925294889</v>
+        <v>0.4262990455991517</v>
       </c>
       <c r="K17">
-        <v>0.08781127129750983</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01310615989515072</v>
+        <v>0.01484623541887593</v>
       </c>
       <c r="N17">
-        <v>0.002621231979030144</v>
+        <v>0.002120890774125133</v>
       </c>
       <c r="O17">
-        <v>0.07863695937090433</v>
+        <v>0.0784729586426299</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1022280471821756</v>
+        <v>0.1039236479321315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02110817941952507</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1826923076923077</v>
+        <v>0.1767810026385224</v>
       </c>
       <c r="I18">
-        <v>0.0608974358974359</v>
+        <v>0.06596306068601583</v>
       </c>
       <c r="J18">
-        <v>0.4551282051282051</v>
+        <v>0.4485488126649076</v>
       </c>
       <c r="K18">
-        <v>0.09935897435897435</v>
+        <v>0.1187335092348285</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009615384615384616</v>
+        <v>0.0079155672823219</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O18">
-        <v>0.04166666666666666</v>
+        <v>0.0395778364116095</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1187335092348285</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0137299771167048</v>
+        <v>0.01232314011866728</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2053775743707094</v>
+        <v>0.2117754450022821</v>
       </c>
       <c r="I19">
-        <v>0.07608695652173914</v>
+        <v>0.07941579187585578</v>
       </c>
       <c r="J19">
-        <v>0.3958810068649886</v>
+        <v>0.3975353719762665</v>
       </c>
       <c r="K19">
-        <v>0.1052631578947368</v>
+        <v>0.09904153354632587</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01659038901601831</v>
+        <v>0.01962574167047011</v>
       </c>
       <c r="N19">
-        <v>0.002288329519450801</v>
+        <v>0.001825650387950707</v>
       </c>
       <c r="O19">
-        <v>0.07608695652173914</v>
+        <v>0.07074395253308992</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.108695652173913</v>
+        <v>0.1077133728890917</v>
       </c>
     </row>
   </sheetData>
